--- a/BLS_data.xlsx
+++ b/BLS_data.xlsx
@@ -150,7 +150,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14287500" cy="8572500"/>
+    <ext cx="14287500" cy="10001250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
